--- a/VN2-B01_TOTAL Training.xlsx
+++ b/VN2-B01_TOTAL Training.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhu\Desktop\VN2\B01 Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ironm\Desktop\VN2B01_028\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218C3D28-4FF2-49F3-BCDD-9AEE5E5558D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="607" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="607"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -377,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,15 +522,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -589,10 +587,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B31FC6D1-D7ED-42DA-A39E-7F3E57232AF3}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -869,14 +872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B3:B53"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -894,17 +897,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -916,17 +919,17 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -934,20 +937,20 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="10">
+      <c r="D3" s="30"/>
+      <c r="E3" s="7">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="20">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -958,78 +961,78 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="37" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="10">
+      <c r="D9" s="30"/>
+      <c r="E9" s="7">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="20">
         <v>3</v>
       </c>
       <c r="J9" t="s">
@@ -1040,237 +1043,237 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="37" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="36" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="1">
         <v>0.5</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="1">
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="20">
         <v>5</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="14"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="11"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="14"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="11"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="14"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="36" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>0.5</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="10">
+      <c r="D17" s="30"/>
+      <c r="E17" s="7">
         <v>4</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>2</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="37" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="37" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="14"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="38" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:11" ht="14.45" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="10">
+      <c r="D26" s="30"/>
+      <c r="E26" s="7">
         <v>5</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="J26" t="s">
@@ -1281,91 +1284,91 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="37" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="23"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="37" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="10"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:11" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>6</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1">
         <v>0.5</v>
       </c>
-      <c r="D33" s="33"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="1">
         <v>6</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="11">
         <v>1</v>
       </c>
       <c r="J33" t="s">
@@ -1376,85 +1379,85 @@
       <c r="A34" s="2">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="1">
         <v>7</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="33"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="23"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>8</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="10">
+      <c r="D36" s="30"/>
+      <c r="E36" s="7">
         <v>8</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="14">
-        <v>1</v>
-      </c>
-      <c r="I36" s="24"/>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="I36" s="21"/>
       <c r="J36" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="33"/>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="30"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="23"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>0.5</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="23"/>
-      <c r="J38" s="16" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="20"/>
+      <c r="J38" s="13" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1462,21 +1465,21 @@
       <c r="A39" s="2">
         <v>9</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <f>SUM(C40:C47)</f>
         <v>9</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="10">
+      <c r="D39" s="30"/>
+      <c r="E39" s="7">
         <v>9</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="11">
         <v>1</v>
       </c>
       <c r="J39" t="s">
@@ -1485,129 +1488,129 @@
     </row>
     <row r="40" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>0.5</v>
       </c>
-      <c r="D40" s="33"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="23"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>2</v>
       </c>
-      <c r="D41" s="33"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="23"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>1.5</v>
       </c>
-      <c r="D42" s="33"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="23"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>0.5</v>
       </c>
-      <c r="D43" s="33"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="23"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="33"/>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="30"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="23"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>0.5</v>
       </c>
-      <c r="D45" s="33"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="23"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>0.5</v>
       </c>
-      <c r="D46" s="33"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="23"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:10" ht="14.45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>2.5</v>
       </c>
-      <c r="D47" s="33"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="23"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>10</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="10">
+      <c r="D48" s="30"/>
+      <c r="E48" s="7">
         <v>10</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G48" s="14">
-        <v>1</v>
-      </c>
-      <c r="J48" s="15" t="s">
+      <c r="G48" s="11">
+        <v>1</v>
+      </c>
+      <c r="J48" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1615,20 +1618,20 @@
       <c r="A49" s="2">
         <v>11</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
-      <c r="D49" s="33"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="1">
         <v>11</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="20">
         <v>3</v>
       </c>
       <c r="J49" t="s">
@@ -1639,41 +1642,41 @@
       <c r="A50" s="2">
         <v>12</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="6">
         <v>7</v>
       </c>
-      <c r="D50" s="33"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="1">
         <v>12</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+      <c r="A51" s="16">
         <v>13</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="33"/>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="30"/>
       <c r="E51" s="1">
         <v>13</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1681,259 +1684,259 @@
       <c r="A52" s="2">
         <v>14</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="1">
         <v>3</v>
       </c>
-      <c r="D52" s="33"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="23"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>15</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
-      <c r="D53" s="33"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="23"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>16</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="8">
-        <v>1</v>
-      </c>
-      <c r="D54" s="33"/>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="30"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="23"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>17</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="D55" s="33"/>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="30"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G55" s="23"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>18</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
       </c>
-      <c r="D56" s="33"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="23"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>19</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="10">
         <v>0.5</v>
       </c>
-      <c r="D57" s="33"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="23"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>20</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
-      <c r="D58" s="33"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="23"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>21</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
-      <c r="D59" s="33"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="23"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>22</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
-      <c r="D60" s="33"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="23"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>23</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
-      <c r="D61" s="33"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="23"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="12">
+      <c r="B62" s="24"/>
+      <c r="C62" s="9">
         <f>SUM(C3,C9,C13,C26,C17,C33,C34,C36,C39,C56)+SUM(C48:C61)</f>
         <v>46</v>
       </c>
-      <c r="D62" s="33"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="23"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="20" t="s">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="33"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="23"/>
+      <c r="G63" s="20"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="37" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="18">
         <v>5</v>
       </c>
-      <c r="D64" s="33"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="28"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="35">
         <v>5</v>
       </c>
-      <c r="D65" s="33"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="23"/>
+      <c r="G65" s="20"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66" s="35">
         <v>5</v>
       </c>
-      <c r="D66" s="33"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="23"/>
+      <c r="G66" s="20"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="11" t="s">
+      <c r="A67" s="16"/>
+      <c r="B67" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="35">
         <v>3</v>
       </c>
-      <c r="D67" s="33"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="28"/>
+      <c r="G67" s="25"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="6">
+      <c r="B68" s="25"/>
+      <c r="C68" s="4">
         <v>20</v>
       </c>
-      <c r="D68" s="33"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="23"/>
+      <c r="G68" s="20"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="18">
+      <c r="B69" s="26"/>
+      <c r="C69" s="15">
         <f>C62+C65+C66+C68</f>
         <v>76</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="31" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="22">
+      <c r="F69" s="29"/>
+      <c r="G69" s="19">
         <f>SUM(G3:G57)</f>
         <v>26</v>
       </c>
@@ -1945,7 +1948,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="26">
+      <c r="G70" s="23">
         <f>C69+G69</f>
         <v>102</v>
       </c>

--- a/VN2-B01_TOTAL Training.xlsx
+++ b/VN2-B01_TOTAL Training.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -653,7 +654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -688,7 +689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -876,10 +877,10 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
